--- a/data/trans_bre/P52_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-21,75</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,56</t>
+          <t>-34,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,81%</t>
+          <t>-76,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-32,62%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-22,58%</t>
+          <t>-87,6%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-42,49; 35,98</t>
+          <t>-23,46; 1,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 15,93</t>
+          <t>-9,06; 14,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 18,75</t>
+          <t>-69,78; -9,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 79,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,53; 26,37</t>
+          <t>-63,44; 519,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,99; 29,17</t>
+          <t>-100,0; -58,09</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,17</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,15</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,19%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-24,93%</t>
+          <t>-17,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>88,07%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 13,99</t>
+          <t>-5,18; 7,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,49; -2,66</t>
+          <t>-11,83; 5,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 35,42</t>
+          <t>-0,3; 12,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,48; 39,03</t>
+          <t>-43,26; 132,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,15; -3,99</t>
+          <t>-50,87; 45,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 136,77</t>
+          <t>-11,74; 299,04</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,31</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,61</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,73</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>45,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>54,21%</t>
+          <t>161,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,01%</t>
+          <t>124,72%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 40,12</t>
+          <t>-3,69; 8,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 38,63</t>
+          <t>2,51; 16,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 30,31</t>
+          <t>-0,65; 13,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 117,62</t>
+          <t>-45,13; 302,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 160,17</t>
+          <t>3,64; 583,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 221,86</t>
+          <t>-19,96; 503,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 14,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 3,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 22,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 33,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 5,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 65,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22,38%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 5,1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 8,03</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-10,53; 5,51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-35,85; 84,22</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-19,06; 78,95</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-56,15; 78,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P52_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,159 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,67</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-34,34</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-76,08%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>48,54%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-87,6%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-7.4664150481294</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.02953260534554</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-39.67092149062987</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.7191328403983832</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1676849290650289</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4384773566192208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,46; 1,02</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 14,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-69,78; -9,68</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-63,44; 519,02</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -58,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-20.71662084126406</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-34.86476729715515</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-85.14175920411481</v>
+      </c>
+      <c r="F5" s="6" t="inlineStr"/>
+      <c r="G5" s="6" t="n">
+        <v>-0.3614419242399045</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.8528117937801775</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.950879578464137</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>59.38372610590027</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.314034720949101</v>
+      </c>
+      <c r="F6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="n">
+        <v>2.297074236442799</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.225235587041579</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,21</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,05</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>21,17%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-17,55%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>88,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,18; 7,9</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,83; 5,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 12,35</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-43,26; 132,35</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-50,87; 45,7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-11,74; 299,04</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.0998382172559</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-11.02009343064785</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>21.72843895265886</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2170417616894106</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1568181574969441</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6864605498049471</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>45,92%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>161,6%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>124,72%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.421670317972689</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-32.43213303313691</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.860877180250579</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4264667721323911</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3982539923684314</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.0827360261651116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 8,76</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 16,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 13,06</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-45,13; 302,09</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,64; 583,22</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-19,96; 503,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.416607384629687</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.47185663918354</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>43.74779540419576</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.553382699298364</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2281555404974455</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.427824101005802</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +771,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.265703622158464</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>23.94216054699276</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>24.71344187570527</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1755576203807075</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.8038855575167582</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.272462528045038</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.859786198138407</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.589447728275702</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.121922369431557</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.6647637247069473</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.05806431426735497</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.06918545437879876</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.322600788040605</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>47.96850849487712</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>44.23791041513407</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.220828993569889</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.278437499746283</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>5.025387084710848</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,81%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>22,38%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 5,1</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,6; 8,03</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,53; 5,51</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-35,85; 84,22</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-19,06; 78,95</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-56,15; 78,17</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.4101803072970034</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.07642787164225</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.358497678392791</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.04648183036249671</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.03699165015561198</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2052016355595065</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.490964768743976</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.87095687315816</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-15.10709726596321</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.4369812755667871</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2021847958765186</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2747857436949523</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.088568059844012</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.15655011273967</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>25.76152613810718</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.8209911908923836</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.415645168891823</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8939319250476442</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
